--- a/HelloFresh_gerechten.xlsx
+++ b/HelloFresh_gerechten.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t xml:space="preserve">gerecht</t>
   </si>
@@ -83,6 +83,33 @@
   </si>
   <si>
     <t xml:space="preserve">Gegratineerde aubergine met zoete aardappelpuree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Groene currysoep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aubergine uit de oven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Couscous met halloumi, kikkererwten en aubergine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parelcouscous met pompoen en feta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Courgette-spaghetti in zureroomsaus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gebakken gnocchi met groene pesto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risotto van orzo met paddenstoelen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aziatische noedelsoep met schelvisfilet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomatenrisotto met scampies</t>
   </si>
 </sst>
 </file>
@@ -93,7 +120,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -210,6 +237,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -362,7 +394,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -375,11 +407,19 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -477,15 +517,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -503,9 +543,8 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="B2" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3</v>
@@ -515,8 +554,7 @@
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="B3" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="n">
@@ -527,8 +565,9 @@
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="b">
-        <v>1</v>
+      <c r="B4" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>4</v>
@@ -538,7 +577,7 @@
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -550,7 +589,7 @@
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -562,9 +601,9 @@
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="B7" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3</v>
@@ -574,21 +613,20 @@
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="B8" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="B9" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3</v>
@@ -598,21 +636,19 @@
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="3" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="B10" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="B11" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3</v>
@@ -622,9 +658,9 @@
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="B12" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3</v>
@@ -634,9 +670,9 @@
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="B13" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3</v>
@@ -646,7 +682,7 @@
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="5" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -658,7 +694,7 @@
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="5" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -670,7 +706,7 @@
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="4" t="n">
+      <c r="B16" s="5" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -682,7 +718,7 @@
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="4" t="n">
+      <c r="B17" s="5" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -694,23 +730,129 @@
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="B18" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="B19" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="C19" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="0" t="n">
         <v>3</v>
       </c>
     </row>

--- a/HelloFresh_gerechten.xlsx
+++ b/HelloFresh_gerechten.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t xml:space="preserve">gerecht</t>
   </si>
@@ -110,6 +110,21 @@
   </si>
   <si>
     <t xml:space="preserve">Tomatenrisotto met scampies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pizza's met mozzarella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spinaziegratin met spiegelei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orzo met spinazie en cherrytomaten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pasta pesto met tonijn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rijstschotel met garnalen</t>
   </si>
 </sst>
 </file>
@@ -120,7 +135,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -237,11 +252,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -399,6 +409,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -407,20 +421,16 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -517,342 +527,404 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="43.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="b">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3" t="b">
+      <c r="C29" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="4" t="b">
+      <c r="C30" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="6" t="b">
+      <c r="C31" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="C18" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="6" t="b">
+      <c r="C32" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="C19" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C26" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C27" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C28" s="0" t="n">
+      <c r="C33" s="0" t="n">
         <v>3</v>
       </c>
     </row>
